--- a/MainTop/20.12.2024/макс_озон_sorted.xlsx
+++ b/MainTop/20.12.2024/макс_озон_sorted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="91">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Тип упорядочить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г1</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Змеи Змея на розовом фоне паттерн</t>
@@ -503,17 +506,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42:S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -548,10 +551,34 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S1" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>7</v>
@@ -560,7 +587,7 @@
         <v>0.25</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>28</v>
@@ -575,12 +602,40 @@
         <v>3</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">H2-SUM(L2:S2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>17</v>
@@ -589,7 +644,7 @@
         <v>0.43</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>39</v>
@@ -604,12 +659,40 @@
         <v>2</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">H3-SUM(L3:S3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>14</v>
@@ -618,7 +701,7 @@
         <v>0.36</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>39</v>
@@ -633,12 +716,40 @@
         <v>2</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">H4-SUM(L4:S4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>18</v>
@@ -647,7 +758,7 @@
         <v>0.29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>63</v>
@@ -662,12 +773,40 @@
         <v>2</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">H5-SUM(L5:S5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10</v>
@@ -676,7 +815,7 @@
         <v>0.18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>56</v>
@@ -691,12 +830,40 @@
         <v>2</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">H6-SUM(L6:S6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6</v>
@@ -705,7 +872,7 @@
         <v>0.18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>33</v>
@@ -720,12 +887,40 @@
         <v>2</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">H7-SUM(L7:S7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>4</v>
@@ -734,7 +929,7 @@
         <v>0.07</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>56</v>
@@ -749,12 +944,40 @@
         <v>2</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">H8-SUM(L8:S8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>17</v>
@@ -763,7 +986,7 @@
         <v>0.21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>79</v>
@@ -778,12 +1001,40 @@
         <v>1</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">H9-SUM(L9:S9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>15</v>
@@ -792,7 +1043,7 @@
         <v>0.21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>70</v>
@@ -807,12 +1058,40 @@
         <v>1</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">H10-SUM(L10:S10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>17</v>
@@ -821,7 +1100,7 @@
         <v>0.18</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>95</v>
@@ -836,12 +1115,40 @@
         <v>1</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">H11-SUM(L11:S11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3</v>
@@ -850,7 +1157,7 @@
         <v>0.14</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>21</v>
@@ -865,12 +1172,40 @@
         <v>1</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">H12-SUM(L12:S12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>7</v>
@@ -879,7 +1214,7 @@
         <v>0.14</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>49</v>
@@ -894,12 +1229,40 @@
         <v>1</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">H13-SUM(L13:S13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>10</v>
@@ -908,7 +1271,7 @@
         <v>0.14</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>70</v>
@@ -923,12 +1286,40 @@
         <v>1</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">H14-SUM(L14:S14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>12</v>
@@ -937,7 +1328,7 @@
         <v>0.11</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>112</v>
@@ -952,12 +1343,40 @@
         <v>1</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">H15-SUM(L15:S15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>9</v>
@@ -966,7 +1385,7 @@
         <v>0.11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>84</v>
@@ -981,12 +1400,40 @@
         <v>1</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">H16-SUM(L16:S16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>21</v>
@@ -995,7 +1442,7 @@
         <v>0.11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>196</v>
@@ -1010,12 +1457,40 @@
         <v>1</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <f aca="false">H17-SUM(L17:S17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>11</v>
@@ -1024,7 +1499,7 @@
         <v>0.11</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>102</v>
@@ -1039,12 +1514,40 @@
         <v>1</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <f aca="false">H18-SUM(L18:S18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>14</v>
@@ -1053,7 +1556,7 @@
         <v>0.11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>130</v>
@@ -1068,12 +1571,40 @@
         <v>1</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <f aca="false">H19-SUM(L19:S19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>17</v>
@@ -1082,7 +1613,7 @@
         <v>0.07</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>238</v>
@@ -1097,12 +1628,40 @@
         <v>1</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">H20-SUM(L20:S20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>5</v>
@@ -1111,7 +1670,7 @@
         <v>0.07</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>70</v>
@@ -1126,12 +1685,40 @@
         <v>1</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">H21-SUM(L21:S21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>16</v>
@@ -1140,7 +1727,7 @@
         <v>0.07</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>224</v>
@@ -1155,12 +1742,40 @@
         <v>1</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <f aca="false">H22-SUM(L22:S22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>10</v>
@@ -1169,7 +1784,7 @@
         <v>0.07</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>140</v>
@@ -1184,12 +1799,40 @@
         <v>1</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">H23-SUM(L23:S23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>7</v>
@@ -1198,7 +1841,7 @@
         <v>0.07</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>98</v>
@@ -1213,12 +1856,40 @@
         <v>1</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <f aca="false">H24-SUM(L24:S24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>7</v>
@@ -1227,7 +1898,7 @@
         <v>0.07</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>98</v>
@@ -1242,16 +1913,44 @@
         <v>1</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K25" s="0" t="n">
         <f aca="false">SUM(H2:H26)</f>
         <v>304</v>
       </c>
+      <c r="L25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <f aca="false">H25-SUM(L25:S25)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -1260,7 +1959,7 @@
         <v>1.93</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>15</v>
@@ -1275,16 +1974,44 @@
         <v>7</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26" s="3" t="n">
         <f aca="false">SUM(H27:H41)</f>
         <v>296</v>
       </c>
+      <c r="L26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">H26-SUM(L26:S26)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>16</v>
@@ -1293,7 +2020,7 @@
         <v>0.57</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>28</v>
@@ -1308,16 +2035,44 @@
         <v>4</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27" s="3" t="n">
         <f aca="false">SUM(H42:H75)</f>
         <v>272</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <f aca="false">H27-SUM(L27:S27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>27</v>
@@ -1326,7 +2081,7 @@
         <v>0.75</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>36</v>
@@ -1341,12 +2096,40 @@
         <v>3</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <f aca="false">H28-SUM(L28:S28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>32</v>
@@ -1355,7 +2138,7 @@
         <v>0.64</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>49</v>
@@ -1370,12 +2153,40 @@
         <v>3</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <f aca="false">H29-SUM(L29:S29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>20</v>
@@ -1384,7 +2195,7 @@
         <v>0.5</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>40</v>
@@ -1399,12 +2210,40 @@
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <f aca="false">H30-SUM(L30:S30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>10</v>
@@ -1413,7 +2252,7 @@
         <v>0.5</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>20</v>
@@ -1428,12 +2267,40 @@
         <v>3</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <f aca="false">H31-SUM(L31:S31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>26</v>
@@ -1442,7 +2309,7 @@
         <v>0.36</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>72</v>
@@ -1457,12 +2324,40 @@
         <v>3</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <f aca="false">H32-SUM(L32:S32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>15</v>
@@ -1471,7 +2366,7 @@
         <v>0.54</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>28</v>
@@ -1486,12 +2381,40 @@
         <v>2</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <f aca="false">H33-SUM(L33:S33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>40</v>
@@ -1500,7 +2423,7 @@
         <v>0.54</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>74</v>
@@ -1515,12 +2438,40 @@
         <v>2</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <f aca="false">H34-SUM(L34:S34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>41</v>
@@ -1529,7 +2480,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>82</v>
@@ -1544,12 +2495,40 @@
         <v>2</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <f aca="false">H35-SUM(L35:S35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>47</v>
@@ -1558,7 +2537,7 @@
         <v>0.46</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>101</v>
@@ -1573,12 +2552,40 @@
         <v>2</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <f aca="false">H36-SUM(L36:S36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>14</v>
@@ -1587,7 +2594,7 @@
         <v>0.36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>39</v>
@@ -1602,12 +2609,40 @@
         <v>2</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <f aca="false">H37-SUM(L37:S37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>13</v>
@@ -1616,7 +2651,7 @@
         <v>0.27</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>48</v>
@@ -1631,12 +2666,40 @@
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <f aca="false">H38-SUM(L38:S38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>19</v>
@@ -1645,7 +2708,7 @@
         <v>0.25</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>76</v>
@@ -1660,12 +2723,40 @@
         <v>2</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <f aca="false">H39-SUM(L39:S39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>6</v>
@@ -1674,7 +2765,7 @@
         <v>0.14</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>42</v>
@@ -1689,12 +2780,40 @@
         <v>2</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <f aca="false">H40-SUM(L40:S40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>6</v>
@@ -1703,7 +2822,7 @@
         <v>0.14</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>42</v>
@@ -1718,12 +2837,40 @@
         <v>2</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <f aca="false">H41-SUM(L41:S41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>19</v>
@@ -1732,7 +2879,7 @@
         <v>0.25</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>76</v>
@@ -1747,12 +2894,40 @@
         <v>1</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <f aca="false">H42-SUM(L42:S42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>38</v>
@@ -1761,7 +2936,7 @@
         <v>0.25</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>152</v>
@@ -1776,12 +2951,40 @@
         <v>1</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <f aca="false">H43-SUM(L43:S43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>5</v>
@@ -1790,7 +2993,7 @@
         <v>0.21</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>23</v>
@@ -1805,12 +3008,40 @@
         <v>1</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <f aca="false">H44-SUM(L44:S44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>24</v>
@@ -1819,7 +3050,7 @@
         <v>0.21</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>112</v>
@@ -1834,12 +3065,40 @@
         <v>1</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <f aca="false">H45-SUM(L45:S45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>23</v>
@@ -1848,7 +3107,7 @@
         <v>0.18</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>128</v>
@@ -1863,12 +3122,40 @@
         <v>1</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <f aca="false">H46-SUM(L46:S46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14</v>
@@ -1877,7 +3164,7 @@
         <v>0.18</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>78</v>
@@ -1892,12 +3179,40 @@
         <v>1</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <f aca="false">H47-SUM(L47:S47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>15</v>
@@ -1906,7 +3221,7 @@
         <v>0.18</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>84</v>
@@ -1921,12 +3236,40 @@
         <v>1</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <f aca="false">H48-SUM(L48:S48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>18</v>
@@ -1935,7 +3278,7 @@
         <v>0.14</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>126</v>
@@ -1950,12 +3293,40 @@
         <v>1</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <f aca="false">H49-SUM(L49:S49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>17</v>
@@ -1964,7 +3335,7 @@
         <v>0.14</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>119</v>
@@ -1979,12 +3350,40 @@
         <v>1</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <f aca="false">H50-SUM(L50:S50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>16</v>
@@ -1993,7 +3392,7 @@
         <v>0.14</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>112</v>
@@ -2008,12 +3407,40 @@
         <v>1</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <f aca="false">H51-SUM(L51:S51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>22</v>
@@ -2022,7 +3449,7 @@
         <v>0.11</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>205</v>
@@ -2037,12 +3464,40 @@
         <v>1</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <f aca="false">H52-SUM(L52:S52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>22</v>
@@ -2051,7 +3506,7 @@
         <v>0.11</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>205</v>
@@ -2066,12 +3521,40 @@
         <v>1</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <f aca="false">H53-SUM(L53:S53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>13</v>
@@ -2080,7 +3563,7 @@
         <v>0.11</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>121</v>
@@ -2095,12 +3578,40 @@
         <v>1</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <f aca="false">H54-SUM(L54:S54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>13</v>
@@ -2109,7 +3620,7 @@
         <v>0.11</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>121</v>
@@ -2124,12 +3635,40 @@
         <v>1</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <f aca="false">H55-SUM(L55:S55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>18</v>
@@ -2138,7 +3677,7 @@
         <v>0.11</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>168</v>
@@ -2153,12 +3692,40 @@
         <v>1</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <f aca="false">H56-SUM(L56:S56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>14</v>
@@ -2167,7 +3734,7 @@
         <v>0.11</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>130</v>
@@ -2182,12 +3749,40 @@
         <v>1</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <f aca="false">H57-SUM(L57:S57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>18</v>
@@ -2196,7 +3791,7 @@
         <v>0.11</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>168</v>
@@ -2211,12 +3806,40 @@
         <v>1</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <f aca="false">H58-SUM(L58:S58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>15</v>
@@ -2225,7 +3848,7 @@
         <v>0.11</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>140</v>
@@ -2240,12 +3863,40 @@
         <v>1</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <f aca="false">H59-SUM(L59:S59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>14</v>
@@ -2254,7 +3905,7 @@
         <v>0.11</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>130</v>
@@ -2269,12 +3920,40 @@
         <v>1</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <f aca="false">H60-SUM(L60:S60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>8</v>
@@ -2283,7 +3962,7 @@
         <v>0.07</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>112</v>
@@ -2298,12 +3977,40 @@
         <v>1</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <f aca="false">H61-SUM(L61:S61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>8</v>
@@ -2312,7 +4019,7 @@
         <v>0.07</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>112</v>
@@ -2327,12 +4034,40 @@
         <v>1</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <f aca="false">H62-SUM(L62:S62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>20</v>
@@ -2341,7 +4076,7 @@
         <v>0.07</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>280</v>
@@ -2356,12 +4091,40 @@
         <v>1</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <f aca="false">H63-SUM(L63:S63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>9</v>
@@ -2370,7 +4133,7 @@
         <v>0.07</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>126</v>
@@ -2385,12 +4148,40 @@
         <v>1</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <f aca="false">H64-SUM(L64:S64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>7</v>
@@ -2399,7 +4190,7 @@
         <v>0.07</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>98</v>
@@ -2414,12 +4205,40 @@
         <v>1</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <f aca="false">H65-SUM(L65:S65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>13</v>
@@ -2428,7 +4247,7 @@
         <v>0.07</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>182</v>
@@ -2443,12 +4262,40 @@
         <v>1</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <f aca="false">H66-SUM(L66:S66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>19</v>
@@ -2457,7 +4304,7 @@
         <v>0.07</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>266</v>
@@ -2472,12 +4319,40 @@
         <v>1</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <f aca="false">H67-SUM(L67:S67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>9</v>
@@ -2486,7 +4361,7 @@
         <v>0.07</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>126</v>
@@ -2501,12 +4376,40 @@
         <v>1</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <f aca="false">H68-SUM(L68:S68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>12</v>
@@ -2515,7 +4418,7 @@
         <v>0.07</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>168</v>
@@ -2530,12 +4433,40 @@
         <v>1</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <f aca="false">H69-SUM(L69:S69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>13</v>
@@ -2544,7 +4475,7 @@
         <v>0.07</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>182</v>
@@ -2559,12 +4490,40 @@
         <v>1</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <f aca="false">H70-SUM(L70:S70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>11</v>
@@ -2573,7 +4532,7 @@
         <v>0.07</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>154</v>
@@ -2588,12 +4547,40 @@
         <v>1</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <f aca="false">H71-SUM(L71:S71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>13</v>
@@ -2602,7 +4589,7 @@
         <v>0.07</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>182</v>
@@ -2617,12 +4604,40 @@
         <v>1</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <f aca="false">H72-SUM(L72:S72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>8</v>
@@ -2631,7 +4646,7 @@
         <v>0.07</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>112</v>
@@ -2646,12 +4661,40 @@
         <v>1</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <f aca="false">H73-SUM(L73:S73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>28</v>
@@ -2660,7 +4703,7 @@
         <v>0.07</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>392</v>
@@ -2675,12 +4718,40 @@
         <v>1</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <f aca="false">H74-SUM(L74:S74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>15</v>
@@ -2689,7 +4760,7 @@
         <v>0.07</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>210</v>
@@ -2704,7 +4775,35 @@
         <v>1</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <f aca="false">H75-SUM(L75:S75)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
